--- a/新导表工具/DataTables/Datas/修炼表.xlsx
+++ b/新导表工具/DataTables/Datas/修炼表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -45,6 +45,9 @@
     <t>Bottleneck</t>
   </si>
   <si>
+    <t>Life</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -69,6 +72,9 @@
     <t>突破瓶颈值</t>
   </si>
   <si>
+    <t>寿命</t>
+  </si>
+  <si>
     <t>凡人</t>
   </si>
   <si>
@@ -99,28 +105,52 @@
     <t>练气九层</t>
   </si>
   <si>
+    <t>WuXinType</t>
+  </si>
+  <si>
     <t>*Effect</t>
   </si>
   <si>
+    <t>EWuXinType</t>
+  </si>
+  <si>
     <t>list,Battle.Effect</t>
   </si>
   <si>
+    <t>五行类型</t>
+  </si>
+  <si>
     <t>效果</t>
   </si>
   <si>
     <t>道经·金</t>
   </si>
   <si>
+    <t>金</t>
+  </si>
+  <si>
     <t>道经·木</t>
   </si>
   <si>
+    <t>木</t>
+  </si>
+  <si>
     <t>道经·水</t>
   </si>
   <si>
+    <t>水</t>
+  </si>
+  <si>
     <t>道经·火</t>
   </si>
   <si>
+    <t>火</t>
+  </si>
+  <si>
     <t>道经·土</t>
+  </si>
+  <si>
+    <t>土</t>
   </si>
 </sst>
 </file>
@@ -133,7 +163,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -144,13 +174,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -605,152 +628,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,7 +786,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1090,20 +1116,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="10.4166666666667" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1119,22 +1145,28 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:1">
@@ -1142,29 +1174,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
+    <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="2:5">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="2:6">
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2">
         <v>10</v>
@@ -1172,13 +1207,16 @@
       <c r="E5" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="2:5">
+      <c r="F5" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="2:6">
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2">
         <v>20</v>
@@ -1186,13 +1224,16 @@
       <c r="E6" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="2:5">
+      <c r="F6" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="2:6">
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2">
         <v>30</v>
@@ -1200,13 +1241,16 @@
       <c r="E7" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="2:5">
+      <c r="F7" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="2:6">
       <c r="B8" s="2">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2">
         <v>40</v>
@@ -1214,13 +1258,16 @@
       <c r="E8" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="2:5">
+      <c r="F8" s="5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="2:6">
       <c r="B9" s="2">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2">
         <v>50</v>
@@ -1228,13 +1275,16 @@
       <c r="E9" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="2:5">
+      <c r="F9" s="5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="2:6">
       <c r="B10" s="2">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2">
         <v>60</v>
@@ -1242,13 +1292,16 @@
       <c r="E10" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="2:5">
+      <c r="F10" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="2:6">
       <c r="B11" s="2">
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2">
         <v>70</v>
@@ -1256,13 +1309,16 @@
       <c r="E11" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="2:5">
+      <c r="F11" s="5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="2:6">
       <c r="B12" s="2">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2">
         <v>80</v>
@@ -1270,13 +1326,16 @@
       <c r="E12" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="2:5">
+      <c r="F12" s="5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="2:6">
       <c r="B13" s="2">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2">
         <v>90</v>
@@ -1284,19 +1343,25 @@
       <c r="E13" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="2:5">
+      <c r="F13" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="2:6">
       <c r="B14" s="2">
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2">
         <v>100</v>
       </c>
       <c r="E14" s="2">
         <v>30</v>
+      </c>
+      <c r="F14" s="5">
+        <v>190</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1"/>
@@ -1320,24 +1385,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9.16666666666667" style="2"/>
-    <col min="3" max="3" width="11.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.8333333333333" style="2" customWidth="1"/>
-    <col min="5" max="7" width="10.5833333333333" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.5833333333333" style="3" customWidth="1"/>
-    <col min="9" max="11" width="10.5833333333333" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.16666666666667" style="2"/>
+    <col min="3" max="4" width="11.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.8333333333333" style="2" customWidth="1"/>
+    <col min="6" max="8" width="10.5833333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.5833333333333" style="3" customWidth="1"/>
+    <col min="10" max="12" width="10.5833333333333" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.16666666666667" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1348,21 +1413,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:1">
@@ -1370,73 +1441,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:4">
+    <row r="4" s="1" customFormat="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="2">
         <v>1001</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="2:8">
+        <v>31</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="2">
         <v>1002</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="2:8">
+        <v>33</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="2">
         <v>1003</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="2:8">
+        <v>35</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="2">
         <v>1004</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="2:8">
+        <v>37</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" s="2">
         <v>1005</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="8:8">
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="8:8">
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="8:8">
-      <c r="H12" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="9:9">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="9:9">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="9:9">
+      <c r="I12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/新导表工具/DataTables/Datas/修炼表.xlsx
+++ b/新导表工具/DataTables/Datas/修炼表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800" activeTab="1"/>
+    <workbookView windowHeight="15140"/>
   </bookViews>
   <sheets>
     <sheet name="境界表" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Bottleneck</t>
   </si>
   <si>
-    <t>Life</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
   </si>
   <si>
     <t>突破瓶颈值</t>
-  </si>
-  <si>
-    <t>寿命</t>
   </si>
   <si>
     <t>凡人</t>
@@ -773,7 +767,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -787,9 +781,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1116,20 +1107,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="10.4166666666667" customWidth="1"/>
+    <col min="3" max="3" width="10.4196428571429" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1145,28 +1136,22 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:1">
@@ -1174,32 +1159,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
+    <row r="4" s="1" customFormat="1" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="2:6">
+    </row>
+    <row r="5" s="2" customFormat="1" spans="2:5">
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
         <v>10</v>
@@ -1207,16 +1189,13 @@
       <c r="E5" s="2">
         <v>3</v>
       </c>
-      <c r="F5" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="2:6">
+    </row>
+    <row r="6" s="2" customFormat="1" spans="2:5">
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2">
         <v>20</v>
@@ -1224,16 +1203,13 @@
       <c r="E6" s="2">
         <v>5</v>
       </c>
-      <c r="F6" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="2:6">
+    </row>
+    <row r="7" s="2" customFormat="1" spans="2:5">
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2">
         <v>30</v>
@@ -1241,16 +1217,13 @@
       <c r="E7" s="2">
         <v>8</v>
       </c>
-      <c r="F7" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="2:6">
+    </row>
+    <row r="8" s="2" customFormat="1" spans="2:5">
       <c r="B8" s="2">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
         <v>40</v>
@@ -1258,16 +1231,13 @@
       <c r="E8" s="2">
         <v>8</v>
       </c>
-      <c r="F8" s="5">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="2:6">
+    </row>
+    <row r="9" s="2" customFormat="1" spans="2:5">
       <c r="B9" s="2">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2">
         <v>50</v>
@@ -1275,16 +1245,13 @@
       <c r="E9" s="2">
         <v>8</v>
       </c>
-      <c r="F9" s="5">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="2:6">
+    </row>
+    <row r="10" s="2" customFormat="1" spans="2:5">
       <c r="B10" s="2">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
         <v>60</v>
@@ -1292,16 +1259,13 @@
       <c r="E10" s="2">
         <v>12</v>
       </c>
-      <c r="F10" s="5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="2:6">
+    </row>
+    <row r="11" s="2" customFormat="1" spans="2:5">
       <c r="B11" s="2">
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2">
         <v>70</v>
@@ -1309,16 +1273,13 @@
       <c r="E11" s="2">
         <v>12</v>
       </c>
-      <c r="F11" s="5">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="2:6">
+    </row>
+    <row r="12" s="2" customFormat="1" spans="2:5">
       <c r="B12" s="2">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2">
         <v>80</v>
@@ -1326,16 +1287,13 @@
       <c r="E12" s="2">
         <v>12</v>
       </c>
-      <c r="F12" s="5">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="2:6">
+    </row>
+    <row r="13" s="2" customFormat="1" spans="2:5">
       <c r="B13" s="2">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2">
         <v>90</v>
@@ -1343,25 +1301,19 @@
       <c r="E13" s="2">
         <v>18</v>
       </c>
-      <c r="F13" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="2:6">
+    </row>
+    <row r="14" s="2" customFormat="1" spans="2:5">
       <c r="B14" s="2">
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2">
         <v>100</v>
       </c>
       <c r="E14" s="2">
         <v>30</v>
-      </c>
-      <c r="F14" s="5">
-        <v>190</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1"/>
@@ -1387,19 +1339,19 @@
   <sheetPr/>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="2" width="9.16666666666667" style="2"/>
+    <col min="1" max="2" width="9.16964285714286" style="2"/>
     <col min="3" max="4" width="11.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.8333333333333" style="2" customWidth="1"/>
-    <col min="6" max="8" width="10.5833333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.5833333333333" style="3" customWidth="1"/>
-    <col min="10" max="12" width="10.5833333333333" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.16666666666667" style="2"/>
+    <col min="5" max="5" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="6" max="8" width="10.5803571428571" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.5803571428571" style="3" customWidth="1"/>
+    <col min="10" max="12" width="10.5803571428571" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.16964285714286" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -1413,27 +1365,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:1">
@@ -1443,19 +1395,19 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -1463,10 +1415,10 @@
         <v>1001</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -1475,10 +1427,10 @@
         <v>1002</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -1487,10 +1439,10 @@
         <v>1003</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I7" s="2"/>
     </row>
@@ -1499,10 +1451,10 @@
         <v>1004</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -1511,10 +1463,10 @@
         <v>1005</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I9" s="2"/>
     </row>

--- a/新导表工具/DataTables/Datas/修炼表.xlsx
+++ b/新导表工具/DataTables/Datas/修炼表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15140"/>
+    <workbookView windowHeight="15140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="境界表" sheetId="5" r:id="rId1"/>
@@ -102,19 +102,19 @@
     <t>WuXinType</t>
   </si>
   <si>
-    <t>*Effect</t>
+    <t>*EffectList</t>
   </si>
   <si>
     <t>EWuXinType</t>
   </si>
   <si>
-    <t>list,Battle.Effect</t>
+    <t>list,int</t>
   </si>
   <si>
     <t>五行类型</t>
   </si>
   <si>
-    <t>效果</t>
+    <t xml:space="preserve"> 效果列表</t>
   </si>
   <si>
     <t>道经·金</t>
@@ -511,7 +511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -526,6 +526,19 @@
       <right style="thin">
         <color rgb="FF7F7F7F"/>
       </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
       <top style="thin">
         <color rgb="FF7F7F7F"/>
       </top>
@@ -643,7 +656,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,13 +668,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -670,19 +683,19 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -777,10 +790,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1109,7 +1122,7 @@
   <sheetPr/>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1180,7 +1193,7 @@
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2">
@@ -1194,7 +1207,7 @@
       <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="2">
@@ -1208,7 +1221,7 @@
       <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2">
@@ -1222,7 +1235,7 @@
       <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="2">
@@ -1236,7 +1249,7 @@
       <c r="B9" s="2">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="2">
@@ -1250,7 +1263,7 @@
       <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="2">
@@ -1264,7 +1277,7 @@
       <c r="B11" s="2">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="2">
@@ -1278,7 +1291,7 @@
       <c r="B12" s="2">
         <v>8</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="2">
@@ -1292,7 +1305,7 @@
       <c r="B13" s="2">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="2">
@@ -1306,7 +1319,7 @@
       <c r="B14" s="2">
         <v>10</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="2">
@@ -1337,21 +1350,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="9.16964285714286" style="2"/>
-    <col min="3" max="4" width="11.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.8303571428571" style="2" customWidth="1"/>
-    <col min="6" max="8" width="10.5803571428571" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.5803571428571" style="3" customWidth="1"/>
-    <col min="10" max="12" width="10.5803571428571" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.16964285714286" style="2"/>
+    <col min="3" max="3" width="11.9821428571429" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.9464285714286" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5982142857143" customWidth="1"/>
+    <col min="6" max="16384" width="9.16964285714286" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -1367,7 +1378,7 @@
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1384,11 +1395,11 @@
       <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:1">
+    <row r="3" s="1" customFormat="1" ht="16" customHeight="1" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1406,78 +1417,70 @@
       <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:5">
       <c r="B5" s="2">
-        <v>1001</v>
-      </c>
-      <c r="C5" s="4" t="s">
+        <v>10001</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="2:9">
+      <c r="E5" s="2">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="2">
-        <v>1002</v>
-      </c>
-      <c r="C6" s="4" t="s">
+        <v>10002</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="2:9">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" s="2">
-        <v>1003</v>
-      </c>
-      <c r="C7" s="4" t="s">
+        <v>10003</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="2:9">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="2">
-        <v>1004</v>
-      </c>
-      <c r="C8" s="4" t="s">
+        <v>10004</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="2:9">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9" s="2">
-        <v>1005</v>
-      </c>
-      <c r="C9" s="4" t="s">
+        <v>10005</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="9:9">
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="9:9">
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="9:9">
-      <c r="I12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/新导表工具/DataTables/Datas/修炼表.xlsx
+++ b/新导表工具/DataTables/Datas/修炼表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -99,10 +99,13 @@
     <t>练气九层</t>
   </si>
   <si>
+    <t>Desc</t>
+  </si>
+  <si>
     <t>WuXinType</t>
   </si>
   <si>
-    <t>*EffectList</t>
+    <t>BuffList</t>
   </si>
   <si>
     <t>EWuXinType</t>
@@ -111,37 +114,52 @@
     <t>list,int</t>
   </si>
   <si>
+    <t>描述</t>
+  </si>
+  <si>
     <t>五行类型</t>
   </si>
   <si>
-    <t xml:space="preserve"> 效果列表</t>
-  </si>
-  <si>
     <t>道经·金</t>
   </si>
   <si>
+    <t>强化力量</t>
+  </si>
+  <si>
     <t>金</t>
   </si>
   <si>
     <t>道经·木</t>
   </si>
   <si>
+    <t>强化法身</t>
+  </si>
+  <si>
     <t>木</t>
   </si>
   <si>
     <t>道经·水</t>
   </si>
   <si>
+    <t>强化速度</t>
+  </si>
+  <si>
     <t>水</t>
   </si>
   <si>
     <t>道经·火</t>
   </si>
   <si>
+    <t>强化神识</t>
+  </si>
+  <si>
     <t>火</t>
   </si>
   <si>
     <t>道经·土</t>
+  </si>
+  <si>
+    <t>强化体魄</t>
   </si>
   <si>
     <t>土</t>
@@ -511,7 +529,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -526,19 +544,6 @@
       <right style="thin">
         <color rgb="FF7F7F7F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right/>
       <top style="thin">
         <color rgb="FF7F7F7F"/>
       </top>
@@ -656,7 +661,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -668,13 +673,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -683,19 +688,19 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,7 +785,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -791,9 +796,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1350,22 +1352,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="9.16964285714286" style="2"/>
-    <col min="3" max="3" width="11.9821428571429" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.9464285714286" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.5982142857143" customWidth="1"/>
-    <col min="6" max="16384" width="9.16964285714286" style="2"/>
+    <col min="3" max="4" width="11.9821428571429" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.9464285714286" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.4285714285714" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.16964285714286" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1378,11 +1380,14 @@
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1393,10 +1398,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="16" customHeight="1" spans="1:1">
@@ -1415,24 +1423,27 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" s="2">
         <v>10001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10010</v>
+        <v>31</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2">
+        <v>10001</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -1440,46 +1451,55 @@
         <v>10002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="2">
         <v>10003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="2">
         <v>10004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="2:4">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" s="2">
         <v>10005</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/新导表工具/DataTables/Datas/修炼表.xlsx
+++ b/新导表工具/DataTables/Datas/修炼表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -111,7 +111,7 @@
     <t>EWuXinType</t>
   </si>
   <si>
-    <t>list,int</t>
+    <t>(list#sep=,),int</t>
   </si>
   <si>
     <t>描述</t>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>金</t>
+  </si>
+  <si>
+    <t>10001,10002,10003,10004,10005</t>
   </si>
   <si>
     <t>道经·木</t>
@@ -785,7 +788,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -795,7 +798,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1195,7 +1204,7 @@
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2">
@@ -1209,7 +1218,7 @@
       <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="2">
@@ -1223,7 +1232,7 @@
       <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2">
@@ -1237,7 +1246,7 @@
       <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="2">
@@ -1251,7 +1260,7 @@
       <c r="B9" s="2">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="2">
@@ -1265,7 +1274,7 @@
       <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="2">
@@ -1279,7 +1288,7 @@
       <c r="B11" s="2">
         <v>7</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="2">
@@ -1293,7 +1302,7 @@
       <c r="B12" s="2">
         <v>8</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="2">
@@ -1307,7 +1316,7 @@
       <c r="B13" s="2">
         <v>9</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="2">
@@ -1321,7 +1330,7 @@
       <c r="B14" s="2">
         <v>10</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="2">
@@ -1355,7 +1364,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F15" sqref="F2 F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6" outlineLevelCol="5"/>
@@ -1363,7 +1372,7 @@
     <col min="1" max="2" width="9.16964285714286" style="2"/>
     <col min="3" max="4" width="11.9821428571429" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.9464285714286" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.4285714285714" style="2" customWidth="1"/>
+    <col min="6" max="6" width="40.5" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9.16964285714286" style="2"/>
   </cols>
   <sheetData>
@@ -1383,7 +1392,7 @@
       <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1403,16 +1412,17 @@
       <c r="E2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="16" customHeight="1" spans="1:1">
+    <row r="3" s="1" customFormat="1" ht="16" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1428,78 +1438,91 @@
       <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="2">
         <v>10001</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="2">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" s="2">
         <v>10002</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7" s="2">
         <v>10003</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8" s="2">
         <v>10004</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="2:5">
+      <c r="E8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9" s="2">
         <v>10005</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>44</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/新导表工具/DataTables/Datas/修炼表.xlsx
+++ b/新导表工具/DataTables/Datas/修炼表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>##var</t>
   </si>
@@ -99,6 +99,9 @@
     <t>练气九层</t>
   </si>
   <si>
+    <t>bookType</t>
+  </si>
+  <si>
     <t>Desc</t>
   </si>
   <si>
@@ -108,6 +111,12 @@
     <t>BuffList</t>
   </si>
   <si>
+    <t>SkillList</t>
+  </si>
+  <si>
+    <t>EBookType</t>
+  </si>
+  <si>
     <t>EWuXinType</t>
   </si>
   <si>
@@ -123,6 +132,9 @@
     <t>道经·金</t>
   </si>
   <si>
+    <t>道法</t>
+  </si>
+  <si>
     <t>强化力量</t>
   </si>
   <si>
@@ -166,6 +178,15 @@
   </si>
   <si>
     <t>土</t>
+  </si>
+  <si>
+    <t>基础剑术</t>
+  </si>
+  <si>
+    <t>术法</t>
+  </si>
+  <si>
+    <t>基础弓术</t>
   </si>
 </sst>
 </file>
@@ -1361,22 +1382,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="F15" sqref="F2 F15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9.16964285714286" style="2"/>
-    <col min="3" max="4" width="11.9821428571429" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.9464285714286" style="2" customWidth="1"/>
-    <col min="6" max="6" width="40.5" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.16964285714286" style="2"/>
+    <col min="3" max="5" width="11.9821428571429" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.9464285714286" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.7142857142857" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.1428571428571" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.16964285714286" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1392,11 +1414,17 @@
       <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="G1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1407,22 +1435,28 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="16" customHeight="1" spans="1:6">
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="16" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1432,97 +1466,146 @@
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="2:6">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="2">
         <v>10001</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
+        <v>35</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="2">
         <v>10002</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
+        <v>39</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="2">
         <v>10003</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" s="2">
         <v>10004</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
+        <v>45</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="2">
         <v>10005</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>33</v>
+        <v>48</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="2">
+        <v>20001</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="2">
+        <v>20002</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1002</v>
       </c>
     </row>
   </sheetData>

--- a/新导表工具/DataTables/Datas/修炼表.xlsx
+++ b/新导表工具/DataTables/Datas/修炼表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15140" activeTab="1"/>
+    <workbookView windowWidth="23260" windowHeight="14000"/>
   </bookViews>
   <sheets>
     <sheet name="境界表" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <t>MaxQi</t>
   </si>
   <si>
-    <t>Bottleneck</t>
+    <t>Exp</t>
   </si>
   <si>
     <t>##type</t>
@@ -822,10 +822,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1154,13 +1154,13 @@
   <sheetPr/>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="10.4196428571429" customWidth="1"/>
+    <col min="3" max="3" width="10.4166666666667" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
@@ -1225,7 +1225,7 @@
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2">
@@ -1239,7 +1239,7 @@
       <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="2">
@@ -1253,7 +1253,7 @@
       <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2">
@@ -1267,7 +1267,7 @@
       <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="2">
@@ -1281,7 +1281,7 @@
       <c r="B9" s="2">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="2">
@@ -1295,7 +1295,7 @@
       <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="2">
@@ -1309,7 +1309,7 @@
       <c r="B11" s="2">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="2">
@@ -1323,7 +1323,7 @@
       <c r="B12" s="2">
         <v>8</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="2">
@@ -1337,7 +1337,7 @@
       <c r="B13" s="2">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="2">
@@ -1351,7 +1351,7 @@
       <c r="B14" s="2">
         <v>10</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="2">
@@ -1384,18 +1384,18 @@
   <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="9.16964285714286" style="2"/>
-    <col min="3" max="5" width="11.9821428571429" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.9464285714286" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.7142857142857" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.1428571428571" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.16964285714286" style="2"/>
+    <col min="1" max="2" width="9.16666666666667" style="2"/>
+    <col min="3" max="5" width="11.9833333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.95" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.7166666666667" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.1416666666667" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.16666666666667" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
@@ -1417,7 +1417,7 @@
       <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1443,10 +1443,10 @@
       <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="1" t="s">
@@ -1472,22 +1472,22 @@
       <c r="F4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="2">
         <v>10001</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -1498,16 +1498,16 @@
       <c r="B6" s="2">
         <v>10002</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -1518,16 +1518,16 @@
       <c r="B7" s="2">
         <v>10003</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>43</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -1538,16 +1538,16 @@
       <c r="B8" s="2">
         <v>10004</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>46</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -1558,16 +1558,16 @@
       <c r="B9" s="2">
         <v>10005</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>49</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -1584,7 +1584,7 @@
       <c r="D10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H10" s="2">
@@ -1601,7 +1601,7 @@
       <c r="D11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="H11" s="2">

--- a/新导表工具/DataTables/Datas/修炼表.xlsx
+++ b/新导表工具/DataTables/Datas/修炼表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23260" windowHeight="14000"/>
+    <workbookView windowHeight="15140"/>
   </bookViews>
   <sheets>
     <sheet name="境界表" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>##var</t>
   </si>
@@ -42,7 +42,10 @@
     <t>MaxQi</t>
   </si>
   <si>
-    <t>Exp</t>
+    <t>UpExp</t>
+  </si>
+  <si>
+    <t>UpBreak</t>
   </si>
   <si>
     <t>##type</t>
@@ -66,7 +69,10 @@
     <t>最大灵气</t>
   </si>
   <si>
-    <t>突破瓶颈值</t>
+    <t>突破修为</t>
+  </si>
+  <si>
+    <t>破境值</t>
   </si>
   <si>
     <t>凡人</t>
@@ -822,10 +828,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1152,20 +1158,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="10.4166666666667" customWidth="1"/>
+    <col min="3" max="3" width="10.4196428571429" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="5" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1181,22 +1187,28 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:1">
@@ -1204,43 +1216,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
+    <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="2:5">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="2:6">
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D5" s="2">
         <v>10</v>
       </c>
       <c r="E5" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="2:5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="2:6">
       <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D6" s="2">
         <v>20</v>
@@ -1248,27 +1266,33 @@
       <c r="E6" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="2:5">
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="2:6">
       <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="2">
         <v>30</v>
       </c>
       <c r="E7" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="2:5">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="2:6">
       <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>16</v>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D8" s="2">
         <v>40</v>
@@ -1276,13 +1300,16 @@
       <c r="E8" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="2:5">
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="2:6">
       <c r="B9" s="2">
         <v>5</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>17</v>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D9" s="2">
         <v>50</v>
@@ -1290,27 +1317,33 @@
       <c r="E9" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="2:5">
+      <c r="F9" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="2:6">
       <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>18</v>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="D10" s="2">
         <v>60</v>
       </c>
       <c r="E10" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="2:5">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="2:6">
       <c r="B11" s="2">
         <v>7</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D11" s="2">
         <v>70</v>
@@ -1318,13 +1351,16 @@
       <c r="E11" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="2:5">
+      <c r="F11" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="2:6">
       <c r="B12" s="2">
         <v>8</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>20</v>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D12" s="2">
         <v>80</v>
@@ -1332,33 +1368,42 @@
       <c r="E12" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="2:5">
+      <c r="F12" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="2:6">
       <c r="B13" s="2">
         <v>9</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>21</v>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="D13" s="2">
         <v>90</v>
       </c>
       <c r="E13" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="2:5">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="2:6">
       <c r="B14" s="2">
         <v>10</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>22</v>
+      <c r="C14" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="D14" s="2">
         <v>100</v>
       </c>
       <c r="E14" s="2">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="F14" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1"/>
@@ -1388,14 +1433,14 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="9.16666666666667" style="2"/>
-    <col min="3" max="5" width="11.9833333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.95" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.7166666666667" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.1416666666667" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.16666666666667" style="2"/>
+    <col min="1" max="2" width="9.16964285714286" style="2"/>
+    <col min="3" max="5" width="11.9821428571429" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.9464285714286" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.7142857142857" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.1428571428571" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.16964285714286" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
@@ -1409,169 +1454,169 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="16" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="2">
         <v>10001</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="E5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G5" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="2">
         <v>10002</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="2">
         <v>10003</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="D7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="G7" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="2">
         <v>10004</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="D8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="G8" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="2">
         <v>10005</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="D9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="G9" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:8">
@@ -1579,13 +1624,13 @@
         <v>20001</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>36</v>
+        <v>53</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="H10" s="2">
         <v>1001</v>
@@ -1596,13 +1641,13 @@
         <v>20002</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>40</v>
+        <v>53</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="H11" s="2">
         <v>1002</v>

--- a/新导表工具/DataTables/Datas/修炼表.xlsx
+++ b/新导表工具/DataTables/Datas/修炼表.xlsx
@@ -75,7 +75,7 @@
     <t>破境值</t>
   </si>
   <si>
-    <t>凡人</t>
+    <t>凡</t>
   </si>
   <si>
     <t>练气一层</t>
@@ -1161,7 +1161,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="5"/>

--- a/新导表工具/DataTables/Datas/修炼表.xlsx
+++ b/新导表工具/DataTables/Datas/修炼表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15140"/>
+    <workbookView windowHeight="15140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="境界表" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <t>##var</t>
   </si>
@@ -147,43 +147,55 @@
     <t>金</t>
   </si>
   <si>
-    <t>10001,10002,10003,10004,10005</t>
+    <t>40001,40002,40003,40004,40005</t>
+  </si>
+  <si>
+    <t>道经·火</t>
+  </si>
+  <si>
+    <t>强化神识</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>40010,40011,40012,40013,40014</t>
+  </si>
+  <si>
+    <t>道经·土</t>
+  </si>
+  <si>
+    <t>强化体魄</t>
+  </si>
+  <si>
+    <t>土</t>
+  </si>
+  <si>
+    <t>40020,40021,40022,40023,40024</t>
+  </si>
+  <si>
+    <t>道经·水</t>
+  </si>
+  <si>
+    <t>强化灵抗</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>40030,40031,40032,40033,40034</t>
   </si>
   <si>
     <t>道经·木</t>
   </si>
   <si>
-    <t>强化法身</t>
+    <t>强化生命</t>
   </si>
   <si>
     <t>木</t>
   </si>
   <si>
-    <t>道经·水</t>
-  </si>
-  <si>
-    <t>强化速度</t>
-  </si>
-  <si>
-    <t>水</t>
-  </si>
-  <si>
-    <t>道经·火</t>
-  </si>
-  <si>
-    <t>强化神识</t>
-  </si>
-  <si>
-    <t>火</t>
-  </si>
-  <si>
-    <t>道经·土</t>
-  </si>
-  <si>
-    <t>强化体魄</t>
-  </si>
-  <si>
-    <t>土</t>
+    <t>40040,40041,40042,40043,40044</t>
   </si>
   <si>
     <t>基础剑术</t>
@@ -1160,7 +1172,7 @@
   <sheetPr/>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1427,16 +1439,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9.16964285714286" style="2"/>
-    <col min="3" max="5" width="11.9821428571429" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.9821428571429" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.7053571428571" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.9464285714286" style="2" customWidth="1"/>
     <col min="7" max="7" width="30.7142857142857" style="3" customWidth="1"/>
     <col min="8" max="8" width="15.1428571428571" style="2" customWidth="1"/>
@@ -1521,7 +1534,7 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="2">
-        <v>10001</v>
+        <v>1001</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>35</v>
@@ -1541,7 +1554,7 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="2">
-        <v>10002</v>
+        <v>1004</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>40</v>
@@ -1556,67 +1569,67 @@
         <v>42</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="2">
-        <v>10003</v>
+        <v>1005</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="2">
-        <v>10004</v>
+        <v>1003</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="2">
-        <v>10005</v>
+        <v>1002</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:8">
@@ -1624,10 +1637,10 @@
         <v>20001</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>38</v>
@@ -1641,17 +1654,32 @@
         <v>20002</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="H11" s="2">
         <v>1002</v>
       </c>
+    </row>
+    <row r="13" spans="7:7">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="7:7">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="7:7">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="7:7">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/新导表工具/DataTables/Datas/修炼表.xlsx
+++ b/新导表工具/DataTables/Datas/修炼表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>##var</t>
   </si>
@@ -198,13 +198,16 @@
     <t>40040,40041,40042,40043,40044</t>
   </si>
   <si>
-    <t>基础剑术</t>
+    <t>无名剑术</t>
   </si>
   <si>
     <t>术法</t>
   </si>
   <si>
-    <t>基础弓术</t>
+    <t>无名弓术</t>
+  </si>
+  <si>
+    <t>无名法术</t>
   </si>
 </sst>
 </file>
@@ -1442,7 +1445,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6" outlineLevelCol="7"/>
@@ -1634,7 +1637,7 @@
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="2">
-        <v>20001</v>
+        <v>2001</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>56</v>
@@ -1642,16 +1645,14 @@
       <c r="D10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="F10" s="4"/>
       <c r="H10" s="2">
         <v>1001</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="2">
-        <v>20002</v>
+        <v>2002</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>58</v>
@@ -1659,11 +1660,26 @@
       <c r="D11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="F11" s="4"/>
       <c r="H11" s="2">
         <v>1002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="2">
+        <v>2003</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1003</v>
       </c>
     </row>
     <row r="13" spans="7:7">

--- a/新导表工具/DataTables/Datas/修炼表.xlsx
+++ b/新导表工具/DataTables/Datas/修炼表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15140" activeTab="1"/>
+    <workbookView windowHeight="17800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="境界表" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t>##var</t>
   </si>
@@ -198,13 +198,25 @@
     <t>40040,40041,40042,40043,40044</t>
   </si>
   <si>
-    <t>无名剑术</t>
+    <t>剑法入门</t>
   </si>
   <si>
     <t>术法</t>
   </si>
   <si>
-    <t>无名弓术</t>
+    <t>前排输出</t>
+  </si>
+  <si>
+    <t>1001,1002,1003</t>
+  </si>
+  <si>
+    <t>锻体入门</t>
+  </si>
+  <si>
+    <t>前排肉盾</t>
+  </si>
+  <si>
+    <t>1101,1102,1103</t>
   </si>
   <si>
     <t>无名法术</t>
@@ -843,10 +855,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1176,12 +1188,12 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="10.4196428571429" customWidth="1"/>
+    <col min="3" max="3" width="10.4166666666667" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
   </cols>
@@ -1255,7 +1267,7 @@
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="2">
@@ -1272,7 +1284,7 @@
       <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2">
@@ -1289,7 +1301,7 @@
       <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="2">
@@ -1306,7 +1318,7 @@
       <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2">
@@ -1323,7 +1335,7 @@
       <c r="B9" s="2">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="2">
@@ -1340,7 +1352,7 @@
       <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="2">
@@ -1357,7 +1369,7 @@
       <c r="B11" s="2">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="2">
@@ -1374,7 +1386,7 @@
       <c r="B12" s="2">
         <v>8</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="2">
@@ -1391,7 +1403,7 @@
       <c r="B13" s="2">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="2">
@@ -1408,7 +1420,7 @@
       <c r="B14" s="2">
         <v>10</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="2">
@@ -1445,18 +1457,19 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="9.16964285714286" style="2"/>
-    <col min="3" max="4" width="11.9821428571429" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.7053571428571" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.9464285714286" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.7142857142857" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.1428571428571" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.16964285714286" style="2"/>
+    <col min="1" max="2" width="9.16666666666667" style="2"/>
+    <col min="3" max="3" width="15.0416666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.9833333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.7083333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.95" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.7166666666667" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.1416666666667" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.16666666666667" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
@@ -1478,7 +1491,7 @@
       <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1504,10 +1517,10 @@
       <c r="F2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1515,7 +1528,7 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="1" t="s">
@@ -1533,22 +1546,22 @@
       <c r="F4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="2">
         <v>1001</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>38</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -1559,16 +1572,16 @@
       <c r="B6" s="2">
         <v>1004</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>42</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -1579,16 +1592,16 @@
       <c r="B7" s="2">
         <v>1005</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>46</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -1599,16 +1612,16 @@
       <c r="B8" s="2">
         <v>1003</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>50</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -1619,16 +1632,16 @@
       <c r="B9" s="2">
         <v>1002</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>54</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -1645,9 +1658,12 @@
       <c r="D10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="H10" s="2">
-        <v>1001</v>
+      <c r="E10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="H10" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="2:8">
@@ -1655,14 +1671,17 @@
         <v>2002</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="H11" s="2">
-        <v>1002</v>
+      <c r="E11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="H11" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="2:8">
@@ -1670,15 +1689,15 @@
         <v>2003</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="3">
         <v>1003</v>
       </c>
     </row>

--- a/新导表工具/DataTables/Datas/修炼表.xlsx
+++ b/新导表工具/DataTables/Datas/修炼表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
   <si>
     <t>##var</t>
   </si>
@@ -219,7 +219,13 @@
     <t>1101,1102,1103</t>
   </si>
   <si>
-    <t>无名法术</t>
+    <t>术法入门·火</t>
+  </si>
+  <si>
+    <t>后排输出</t>
+  </si>
+  <si>
+    <t>1201,1202,1203</t>
   </si>
 </sst>
 </file>
@@ -1457,7 +1463,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1694,11 +1700,14 @@
       <c r="D12" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E12" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="F12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="3">
-        <v>1003</v>
+      <c r="H12" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="7:7">
